--- a/pildoras2/Facturacion_2025.xlsx
+++ b/pildoras2/Facturacion_2025.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Febrero" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Marzo" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +446,6 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
           <t>FECHA</t>
@@ -457,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>140 €</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>140 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -477,17 +478,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>140 €</t>
+          <t>50 €</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>140 €</t>
+          <t>50 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>07/01/2025</t>
         </is>
       </c>
     </row>
@@ -497,17 +498,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>210 €</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>210 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>04/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
     </row>
@@ -517,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
     </row>
@@ -537,17 +538,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320 €</t>
+          <t>340 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>320 €</t>
+          <t>340 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>10/01/2025</t>
         </is>
       </c>
     </row>
@@ -557,17 +558,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>130 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>130 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>11/01/2025</t>
         </is>
       </c>
     </row>
@@ -577,12 +578,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -597,17 +598,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160 €</t>
+          <t>220 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>160 €</t>
+          <t>220 €</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14/01/2025</t>
+          <t>15/01/2025</t>
         </is>
       </c>
     </row>
@@ -617,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>320 €</t>
+          <t>270 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>320 €</t>
+          <t>270 €</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>17/01/2025</t>
         </is>
       </c>
     </row>
@@ -637,17 +638,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>180 €</t>
+          <t>110 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>180 €</t>
+          <t>110 €</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17/01/2025</t>
+          <t>18/01/2025</t>
         </is>
       </c>
     </row>
@@ -657,17 +658,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>320 €</t>
+          <t>120 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>320 €</t>
+          <t>120 €</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18/01/2025</t>
+          <t>21/01/2025</t>
         </is>
       </c>
     </row>
@@ -677,17 +678,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>260 €</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>260 €</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21/01/2025</t>
+          <t>22/01/2025</t>
         </is>
       </c>
     </row>
@@ -697,17 +698,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>340 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>340 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22/01/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
     </row>
@@ -717,17 +718,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>50 €</t>
+          <t>240 €</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>50 €</t>
+          <t>240 €</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>24/01/2025</t>
         </is>
       </c>
     </row>
@@ -737,17 +738,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>150 €</t>
+          <t>170 €</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>150 €</t>
+          <t>170 €</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25/01/2025</t>
+          <t>27/01/2025</t>
         </is>
       </c>
     </row>
@@ -757,12 +758,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>210 €</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>210 €</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -777,12 +778,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>140 €</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>140 €</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -797,12 +798,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160 €</t>
+          <t>290 €</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>160 €</t>
+          <t>290 €</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -817,12 +818,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100 €</t>
+          <t>60 €</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>100 €</t>
+          <t>60 €</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -840,6 +841,727 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>2630 €</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FACTURA SIMPLIFICADA</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CANTIDADES DIARIAS</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210 €</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>210 €</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>05/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>340 €</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>340 €</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160 €</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>230 €</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>240 €</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>190 €</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>260 €</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Total Febrero</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2760 €</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FACTURA SIMPLIFICADA</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CANTIDADES DIARIAS</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110 €</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>290 €</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110 €</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>240 €</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>43</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>290 €</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Total Marzo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1245 €</t>
         </is>
       </c>
     </row>

--- a/pildoras2/Facturacion_2025.xlsx
+++ b/pildoras2/Facturacion_2025.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>140 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>140 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
     </row>
@@ -478,17 +478,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>50 €</t>
+          <t>180 €</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50 €</t>
+          <t>180 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>04/01/2025</t>
         </is>
       </c>
     </row>
@@ -498,17 +498,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210 €</t>
+          <t>220 €</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>210 €</t>
+          <t>220 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>07/01/2025</t>
         </is>
       </c>
     </row>
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>170 €</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>170 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
     </row>
@@ -558,17 +558,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>130 €</t>
+          <t>270 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>130 €</t>
+          <t>270 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11/01/2025</t>
+          <t>10/01/2025</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200 €</t>
+          <t>90 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>200 €</t>
+          <t>90 €</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -598,17 +598,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>220 €</t>
+          <t>70 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>220 €</t>
+          <t>70 €</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>14/01/2025</t>
         </is>
       </c>
     </row>
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>270 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>270 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17/01/2025</t>
+          <t>15/01/2025</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>110 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18/01/2025</t>
+          <t>16/01/2025</t>
         </is>
       </c>
     </row>
@@ -658,17 +658,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>170 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>170 €</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21/01/2025</t>
+          <t>17/01/2025</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>260 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>260 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22/01/2025</t>
+          <t>18/01/2025</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>200 €</t>
+          <t>260 €</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>200 €</t>
+          <t>260 €</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>21/01/2025</t>
         </is>
       </c>
     </row>
@@ -718,17 +718,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>340 €</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>340 €</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24/01/2025</t>
+          <t>22/01/2025</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>170 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>170 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27/01/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
     </row>
@@ -758,17 +758,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>210 €</t>
+          <t>100 €</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>210 €</t>
+          <t>100 €</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28/01/2025</t>
+          <t>27/01/2025</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>140 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>140 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>290 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>290 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -832,13 +832,13 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Total Enero</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>2630 €</t>
         </is>
@@ -855,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,16 +894,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210 €</t>
+          <t>110 €</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>210 €</t>
+          <t>110 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -914,16 +914,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>150 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -934,16 +934,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -954,36 +954,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>80 €</t>
+          <t>70 €</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80 €</t>
+          <t>70 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>06/02/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -994,16 +994,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>180 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>180 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1014,96 +1014,91 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>120 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>120 €</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13/02/2025</t>
+          <t>11/02/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>210 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>210 €</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14/02/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>310 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15/02/2025</t>
+          <t>14/02/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>340 €</t>
+          <t>320 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>340 €</t>
+          <t>320 €</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>15/02/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>350 €</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>350 €</t>
+          <t>270 €</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1113,172 +1108,189 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>31</v>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>90 €</t>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>340 €</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19/02/2025</t>
+          <t>18/02/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160 €</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>230 €</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>250 €</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>19/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>32</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>330 €</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240 €</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>340 €</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>120 €</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>22/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>230 €</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>350 €</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>33</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>50 €</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>50 €</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>100 €</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>34</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>180 €</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>60 €</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>240 €</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>35</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>190 €</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>70 €</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>260 €</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+          <t>28/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>320 €</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Total Febrero</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>2760 €</t>
         </is>
@@ -1295,7 +1307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,115 +1347,107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>140 €</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>140 €</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>06/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>180 €</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>180 €</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>03/03/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180 €</t>
+          <t>70 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11/03/2025</t>
+          <t>06/03/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>110 €</t>
+          <t>70 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>290 €</t>
+          <t>140 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11/03/2025</t>
+          <t>06/03/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>270 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>100 €</t>
+          <t>80 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1453,115 +1457,147 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>110 €</t>
+          <t>230 €</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>130 €</t>
+          <t>110 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>340 €</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>70 €</t>
+          <t>260 €</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>22/03/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>60 €</t>
+          <t>50 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>130 €</t>
+          <t>310 €</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>22/03/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>120 €</t>
+          <t>280 €</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>170 €</t>
+          <t>50 €</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>290 €</t>
+          <t>330 €</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>190 €</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>310 €</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Total Marzo</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1245 €</t>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1240 €</t>
         </is>
       </c>
     </row>
